--- a/tests/data/compare_old.xlsx
+++ b/tests/data/compare_old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="220" windowWidth="14300" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>key</t>
   </si>
@@ -70,13 +70,22 @@
   </si>
   <si>
     <t>…æ</t>
+  </si>
+  <si>
+    <t>VQSR</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +99,22 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,15 +134,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +487,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -489,7 +526,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -505,6 +545,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="16">
       <c r="A4">
@@ -519,6 +562,9 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -534,7 +580,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -550,9 +599,16 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
